--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/namekonoosama/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/namekonoosama/Task_Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD890C2-2511-8B44-8B68-0F4FBE1C2617}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E407E352-C8B0-864F-8593-7D1874E48516}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="27200" windowHeight="13740" xr2:uid="{C2D50039-3736-BC46-B102-F1A58D85666A}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -200,6 +200,28 @@
   </si>
   <si>
     <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時刻</t>
+    <rPh sb="0" eb="2">
+      <t>カイs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -594,15 +616,16 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -778,16 +801,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
@@ -828,13 +851,17 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -866,13 +893,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -904,17 +935,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>300</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -945,8 +972,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="G10" s="1">
@@ -971,10 +1002,18 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>300</v>
+      </c>
       <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
